--- a/data/trans_dic/P20_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho</t>
+          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,48%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,17 +617,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>34,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>28,75%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,65; 36,72</t>
+          <t>21,62; 36,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,67; 32,32</t>
+          <t>16,89; 31,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,19; 56,27</t>
+          <t>40,3; 56,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,72; 42,02</t>
+          <t>26,8; 41,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,78; 43,49</t>
+          <t>32,59; 43,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,53; 35,26</t>
+          <t>23,09; 33,85</t>
         </is>
       </c>
     </row>
@@ -681,12 +682,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>22,83%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,81; 30,33</t>
+          <t>14,58; 30,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,97; 31,07</t>
+          <t>12,58; 34,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,12; 39,46</t>
+          <t>26,68; 40,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,64; 33,66</t>
+          <t>18,83; 31,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>21,98; 31,6</t>
+          <t>21,17; 31,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,17; 28,78</t>
+          <t>17,86; 30,4</t>
         </is>
       </c>
     </row>
@@ -766,17 +767,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,16%</t>
+          <t>24,88%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,53; 24,31</t>
+          <t>14,91; 24,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,68; 29,04</t>
+          <t>13,07; 22,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,21; 36,21</t>
+          <t>26,13; 36,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,61; 36,66</t>
+          <t>26,22; 37,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,47; 28,7</t>
+          <t>21,7; 28,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,88; 30,32</t>
+          <t>21,38; 29,25</t>
         </is>
       </c>
     </row>
@@ -846,27 +847,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,42%</t>
+          <t>23,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>22,09%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 23,27</t>
+          <t>14,39; 23,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,22; 26,6</t>
+          <t>15,4; 26,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,89; 26,99</t>
+          <t>17,54; 26,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,55; 28,35</t>
+          <t>19,24; 28,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,17; 23,54</t>
+          <t>17,15; 23,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 25,73</t>
+          <t>18,52; 25,88</t>
         </is>
       </c>
     </row>
@@ -926,7 +927,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -936,7 +937,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +947,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,56%</t>
+          <t>17,02%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,79; 18,05</t>
+          <t>9,52; 17,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,16; 17,17</t>
+          <t>8,23; 17,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,9; 34,9</t>
+          <t>22,99; 35,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,72; 26,36</t>
+          <t>16,63; 27,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,01; 24,86</t>
+          <t>17,54; 25,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,41; 20,2</t>
+          <t>13,75; 20,66</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>19,33%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,99; 23,83</t>
+          <t>10,72; 23,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,08; 24,3</t>
+          <t>7,11; 23,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,4; 31,11</t>
+          <t>19,81; 30,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,57; 29,91</t>
+          <t>18,73; 31,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,37; 25,62</t>
+          <t>17,42; 25,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,27; 24,24</t>
+          <t>14,97; 25,05</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,1%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30,15%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>22,29%</t>
+          <t>22,48%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,81</t>
+          <t>17,26; 21,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,31; 21,09</t>
+          <t>15,5; 21,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,96; 32,68</t>
+          <t>27,65; 32,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,08; 28,97</t>
+          <t>24,59; 29,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>23,05; 26,56</t>
+          <t>23,03; 26,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,56; 24,41</t>
+          <t>20,8; 24,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido ganas de hablar porque estaba angustiado/a, pero no lo ha hecho (tasa de respuesta: 99,83%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>146782</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>118368</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>223988</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>159946</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>370770</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>278314</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>110897; 187842</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>84806; 156701</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>186548; 260664</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>124856; 195623</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>318049; 428807</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>223533; 327657</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>115465</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>115788</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>168169</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>131677</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>283634</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>247465</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>82134; 174262</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>71742; 193940</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>138438; 207678</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>96769; 164212</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>229114; 343684</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>193656; 329533</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>130064</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>120888</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>214940</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>227150</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>345004</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>348037</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>100798; 165446</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>89704; 157119</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>181363; 254597</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>186784; 268540</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>297374; 396304</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>299053; 409142</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>117895</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>131910</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>153559</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>162031</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>271454</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>293941</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>91898; 152163</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>99693; 174347</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>123344; 186831</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>131557; 196887</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>230055; 315461</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>246512; 344429</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>69567</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>60659</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>143767</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>109518</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>213335</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>170177</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>48746; 91998</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>40745; 88883</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>115500; 178340</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>83872; 141133</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>177876; 257810</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>137409; 206549</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>85619</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>63581</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>182654</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>170813</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>268273</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>234394</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>58606; 127150</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>37310; 121384</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>144864; 220753</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>128816; 216014</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>222670; 324413</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>181535; 303784</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>465.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>718.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>549.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>665392</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>611194</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1087077</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>961134</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1752469</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1572328</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>595551; 756117</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>531098; 721421</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>998957; 1169828</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>877350; 1050107</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1626737; 1873110</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1455104; 1714420</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>